--- a/data/cleaned_data/final_cleaned/final_cleaned_insgesamt/tode_insgesamt_nach_jahr.xlsx
+++ b/data/cleaned_data/final_cleaned/final_cleaned_insgesamt/tode_insgesamt_nach_jahr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy-1/data/cleaned_data/final_cleaned/final_cleaned_insgesamt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy-2/data/cleaned_data/final_cleaned/final_cleaned_insgesamt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115418A-6C31-CF4A-A3F2-42D15195CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF0F73D-4908-5746-B349-534E21E4FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="3360" windowWidth="27440" windowHeight="15760" xr2:uid="{CF0350FE-E234-B247-966E-0E06E8188168}"/>
+    <workbookView xWindow="-3340" yWindow="2480" windowWidth="27440" windowHeight="15760" xr2:uid="{CF0350FE-E234-B247-966E-0E06E8188168}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,15 +535,24 @@
       <c r="A13">
         <v>2021</v>
       </c>
+      <c r="B13">
+        <v>1947688</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
+      <c r="B14">
+        <v>2035284</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>1962662</v>
       </c>
     </row>
   </sheetData>
